--- a/results/mp/tinybert/corona/confidence/210/0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,169 +43,190 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>$</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -563,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -724,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7337662337662337</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3928571428571428</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3648068669527897</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.313953488372093</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.225</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,119 +1021,71 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>62</v>
+        <v>330</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L10">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>110</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>98</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.8461538461538461</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8392857142857143</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8275862068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1202,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.803921568627451</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1228,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7948717948717948</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1254,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7647058823529411</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1280,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7307692307692307</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1306,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7241379310344828</v>
+        <v>0.68125</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1332,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1358,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1384,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1410,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6575342465753424</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1436,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.64</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1462,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5909090909090909</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1488,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5789473684210527</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1514,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5774647887323944</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L28">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="M28">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1540,47 +1513,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>90</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L29">
+        <v>44</v>
+      </c>
+      <c r="M29">
+        <v>44</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>45</v>
-      </c>
-      <c r="K29">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L29">
-        <v>16</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5347222222222222</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L30">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="M30">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1592,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>67</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5217391304347826</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L31">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="M31">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1618,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1644,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4883720930232558</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1670,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4333333333333333</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1696,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1722,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4166666666666667</v>
+        <v>0.34375</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1748,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3783783783783784</v>
+        <v>0.3</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1774,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3157894736842105</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1800,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.05741626794258373</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1826,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>197</v>
+        <v>855</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.03728070175438596</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1852,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>439</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.03414634146341464</v>
+        <v>0.03</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1878,73 +1851,73 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>396</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.02816901408450704</v>
+        <v>0.02839756592292089</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>414</v>
+        <v>958</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.02416052416052416</v>
+      </c>
+      <c r="L43">
         <v>59</v>
       </c>
-      <c r="K43">
-        <v>0.01293103448275862</v>
-      </c>
-      <c r="L43">
-        <v>12</v>
-      </c>
       <c r="M43">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>916</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.01171458998935037</v>
+        <v>0.02277904328018223</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1956,85 +1929,319 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>928</v>
+        <v>858</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.01146131805157593</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1725</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.0106951871657754</v>
+        <v>0.01632970451010887</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N46">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="O46">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1110</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="L47">
+        <v>34</v>
+      </c>
+      <c r="M47">
+        <v>35</v>
+      </c>
+      <c r="N47">
+        <v>0.97</v>
+      </c>
+      <c r="O47">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0.93</v>
+      </c>
+      <c r="O48">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K47">
-        <v>0.006263048016701462</v>
-      </c>
-      <c r="L47">
-        <v>12</v>
-      </c>
-      <c r="M47">
-        <v>12</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>1904</v>
+      <c r="K49">
+        <v>0.01395007342143906</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>0.95</v>
+      </c>
+      <c r="O49">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50">
+        <v>0.01389473684210526</v>
+      </c>
+      <c r="L50">
+        <v>33</v>
+      </c>
+      <c r="M50">
+        <v>37</v>
+      </c>
+      <c r="N50">
+        <v>0.89</v>
+      </c>
+      <c r="O50">
+        <v>0.11</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51">
+        <v>0.01389210465385506</v>
+      </c>
+      <c r="L51">
+        <v>60</v>
+      </c>
+      <c r="M51">
+        <v>69</v>
+      </c>
+      <c r="N51">
+        <v>0.87</v>
+      </c>
+      <c r="O51">
+        <v>0.13</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52">
+        <v>0.01353528843055108</v>
+      </c>
+      <c r="L52">
+        <v>42</v>
+      </c>
+      <c r="M52">
+        <v>46</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53">
+        <v>0.01302083333333333</v>
+      </c>
+      <c r="L53">
+        <v>65</v>
+      </c>
+      <c r="M53">
+        <v>69</v>
+      </c>
+      <c r="N53">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54">
+        <v>0.01181941484208487</v>
+      </c>
+      <c r="L54">
+        <v>61</v>
+      </c>
+      <c r="M54">
+        <v>65</v>
+      </c>
+      <c r="N54">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O54">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55">
+        <v>0.009544468546637744</v>
+      </c>
+      <c r="L55">
+        <v>22</v>
+      </c>
+      <c r="M55">
+        <v>26</v>
+      </c>
+      <c r="N55">
+        <v>0.85</v>
+      </c>
+      <c r="O55">
+        <v>0.15</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56">
+        <v>0.006566604127579738</v>
+      </c>
+      <c r="L56">
+        <v>21</v>
+      </c>
+      <c r="M56">
+        <v>24</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3177</v>
       </c>
     </row>
   </sheetData>
